--- a/2024软件工程数据统计/课堂考核及成绩记载表10.29.xlsx
+++ b/2024软件工程数据统计/课堂考核及成绩记载表10.29.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Git-2024软工数据统计\2024软件工程数据统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E10AF1-7C06-4574-BAD5-D97AA77A7DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3FA17D-C1F2-440C-82CB-4FF9730F3172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="185">
   <si>
     <t>浙大城市学院课堂考核及成绩记载表</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -943,6 +943,23 @@
         <scheme val="minor"/>
       </rPr>
       <t>7</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>晚一天）</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1456,7 +1473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C34133-ADDC-4865-A8A7-599D46B0AE85}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
@@ -3068,7 +3085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E054571-BFA3-4C2E-8A90-163875D0870A}">
   <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
@@ -4701,7 +4718,7 @@
   <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4713,6 +4730,7 @@
     <col min="9" max="10" width="12.5" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
     <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5473,7 +5491,9 @@
       <c r="L21" s="3">
         <v>1</v>
       </c>
-      <c r="M21" s="3"/>
+      <c r="M21" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
@@ -5510,8 +5530,8 @@
       <c r="L22" s="3">
         <v>1</v>
       </c>
-      <c r="M22" s="3">
-        <v>1</v>
+      <c r="M22" s="5" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -5584,8 +5604,8 @@
       <c r="L24" s="3">
         <v>1</v>
       </c>
-      <c r="M24" s="3">
-        <v>1</v>
+      <c r="M24" s="5" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -5732,8 +5752,8 @@
       <c r="L28" s="3">
         <v>1</v>
       </c>
-      <c r="M28" s="3">
-        <v>1</v>
+      <c r="M28" s="5" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -6112,7 +6132,9 @@
       <c r="L38" s="3">
         <v>1</v>
       </c>
-      <c r="M38" s="3"/>
+      <c r="M38" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
@@ -6231,7 +6253,9 @@
       <c r="L41" s="3">
         <v>1</v>
       </c>
-      <c r="M41" s="3"/>
+      <c r="M41" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="3">

--- a/2024软件工程数据统计/课堂考核及成绩记载表10.29.xlsx
+++ b/2024软件工程数据统计/课堂考核及成绩记载表10.29.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Git-2024软工数据统计\2024软件工程数据统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3FA17D-C1F2-440C-82CB-4FF9730F3172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78951DE9-D3EB-46FC-BD4F-20E679498E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="186">
   <si>
     <t>浙大城市学院课堂考核及成绩记载表</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -716,10 +716,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>（每人加一分）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>G06（学校二手书）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -960,6 +956,73 @@
         <scheme val="minor"/>
       </rPr>
       <t>晚一天）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>第三次项目计划汇报（总分5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>29</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9.7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（每人加一分）</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1107,7 +1170,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1155,6 +1218,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1473,7 +1542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C34133-ADDC-4865-A8A7-599D46B0AE85}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
@@ -4717,7 +4786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F85BF50-88E6-40A2-A1FB-0D6A472C90B1}">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
@@ -4783,7 +4852,7 @@
         <v>166</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -5531,7 +5600,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -5605,7 +5674,7 @@
         <v>1</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -5753,7 +5822,7 @@
         <v>1</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -6505,8 +6574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226FB694-32D6-4278-9D50-7298BB867D7B}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6523,32 +6592,36 @@
       <c r="B1" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="16" t="s">
+        <v>184</v>
+      </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B2" s="3">
         <v>58.83</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="3">
+        <v>41.2</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B3" s="3">
         <v>51.36</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>168</v>
+      <c r="C3" s="17" t="s">
+        <v>185</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -6556,139 +6629,161 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B4" s="3">
         <v>63.73</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="3">
+        <v>38.75</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5" s="3">
         <v>56.92</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="3">
+        <v>41.12</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B6" s="3">
         <v>58</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="3">
+        <v>40.1</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B7" s="3">
         <v>61.5</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="3">
+        <v>35.9</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8" s="3">
         <v>51.78</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="3">
+        <v>39.57</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B9" s="3">
         <v>56.7</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="3">
+        <v>34.869999999999997</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B10" s="3">
         <v>53.71</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="3">
+        <v>41.7</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B11" s="3">
         <v>52.57</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="3">
+        <v>38.5</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B12" s="3">
         <v>59.54</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="3">
+        <v>40.9</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B13" s="3">
         <v>47.92</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="3">
+        <v>40.6</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B14" s="3">
         <v>63.44</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="3">
+        <v>39.46</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B15" s="3">
         <v>54.73</v>

--- a/2024软件工程数据统计/课堂考核及成绩记载表10.29.xlsx
+++ b/2024软件工程数据统计/课堂考核及成绩记载表10.29.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Git-2024软工数据统计\2024软件工程数据统计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\2024软件工程数据统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78951DE9-D3EB-46FC-BD4F-20E679498E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87FC314-7C6B-41BF-8D23-257CAF2EABC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="189">
   <si>
     <t>浙大城市学院课堂考核及成绩记载表</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1024,6 +1024,18 @@
       </rPr>
       <t>（每人加一分）</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组作业11.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚20分钟提交</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚22分钟提交</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1195,6 +1207,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1218,12 +1236,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1546,111 +1558,111 @@
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.46484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="13.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-    </row>
-    <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+    </row>
+    <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11"/>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8">
-        <v>1</v>
-      </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="9"/>
+      <c r="E2" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="8" t="s">
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="8" t="s">
+      <c r="Q2" s="11"/>
+      <c r="R2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="9"/>
-    </row>
-    <row r="3" spans="1:19" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="S2" s="11"/>
+    </row>
+    <row r="3" spans="1:19" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="9"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="8" t="s">
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="8" t="s">
+      <c r="Q3" s="11"/>
+      <c r="R3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="9"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S3" s="11"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1709,7 +1721,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1740,7 +1752,7 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1771,7 +1783,7 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1802,7 +1814,7 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1833,7 +1845,7 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -1864,7 +1876,7 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -1895,7 +1907,7 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -1926,7 +1938,7 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -1959,7 +1971,7 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -1990,7 +2002,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
     </row>
-    <row r="14" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -2023,7 +2035,7 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
     </row>
-    <row r="15" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -2054,7 +2066,7 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -2087,7 +2099,7 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
     </row>
-    <row r="17" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -2118,7 +2130,7 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
     </row>
-    <row r="18" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -2151,7 +2163,7 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -2182,7 +2194,7 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
     </row>
-    <row r="20" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -2213,7 +2225,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -2244,7 +2256,7 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -2277,7 +2289,7 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
     </row>
-    <row r="23" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -2308,7 +2320,7 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
     </row>
-    <row r="24" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -2341,7 +2353,7 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
     </row>
-    <row r="25" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -2372,7 +2384,7 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
     </row>
-    <row r="26" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -2403,7 +2415,7 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
     </row>
-    <row r="27" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -2434,7 +2446,7 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
     </row>
-    <row r="28" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>24</v>
       </c>
@@ -2465,7 +2477,7 @@
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
     </row>
-    <row r="29" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>25</v>
       </c>
@@ -2496,7 +2508,7 @@
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
     </row>
-    <row r="30" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>26</v>
       </c>
@@ -2527,7 +2539,7 @@
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
     </row>
-    <row r="31" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>27</v>
       </c>
@@ -2558,7 +2570,7 @@
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
     </row>
-    <row r="32" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>28</v>
       </c>
@@ -2589,7 +2601,7 @@
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
     </row>
-    <row r="33" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>29</v>
       </c>
@@ -2622,7 +2634,7 @@
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
     </row>
-    <row r="34" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>30</v>
       </c>
@@ -2655,7 +2667,7 @@
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
     </row>
-    <row r="35" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>31</v>
       </c>
@@ -2686,7 +2698,7 @@
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
     </row>
-    <row r="36" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>32</v>
       </c>
@@ -2717,7 +2729,7 @@
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
     </row>
-    <row r="37" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>33</v>
       </c>
@@ -2748,7 +2760,7 @@
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
     </row>
-    <row r="38" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <v>34</v>
       </c>
@@ -2779,7 +2791,7 @@
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
     </row>
-    <row r="39" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <v>35</v>
       </c>
@@ -2814,7 +2826,7 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
     </row>
-    <row r="40" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <v>36</v>
       </c>
@@ -2847,7 +2859,7 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
     </row>
-    <row r="41" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <v>37</v>
       </c>
@@ -2880,7 +2892,7 @@
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
     </row>
-    <row r="42" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <v>38</v>
       </c>
@@ -2913,7 +2925,7 @@
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
     </row>
-    <row r="43" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <v>39</v>
       </c>
@@ -2944,7 +2956,7 @@
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
     </row>
-    <row r="44" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <v>40</v>
       </c>
@@ -2975,7 +2987,7 @@
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
     </row>
-    <row r="45" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <v>41</v>
       </c>
@@ -3008,7 +3020,7 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <v>42</v>
       </c>
@@ -3039,7 +3051,7 @@
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <v>43</v>
       </c>
@@ -3070,7 +3082,7 @@
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A48" s="4">
         <v>44</v>
       </c>
@@ -3101,7 +3113,7 @@
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A49" s="4">
         <v>45</v>
       </c>
@@ -3158,39 +3170,39 @@
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="13.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -3261,7 +3273,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -3294,7 +3306,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -3327,7 +3339,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -3360,7 +3372,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -3393,7 +3405,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -3426,7 +3438,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -3459,7 +3471,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -3492,7 +3504,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -3527,7 +3539,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -3560,7 +3572,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -3595,7 +3607,7 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -3628,7 +3640,7 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -3663,7 +3675,7 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -3696,7 +3708,7 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -3731,7 +3743,7 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -3764,7 +3776,7 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -3797,7 +3809,7 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -3830,7 +3842,7 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -3865,7 +3877,7 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -3898,7 +3910,7 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -3933,7 +3945,7 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -3966,7 +3978,7 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -3999,7 +4011,7 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -4032,7 +4044,7 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -4065,7 +4077,7 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -4098,7 +4110,7 @@
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -4131,7 +4143,7 @@
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -4164,7 +4176,7 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -4197,7 +4209,7 @@
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -4232,7 +4244,7 @@
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -4267,7 +4279,7 @@
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -4302,7 +4314,7 @@
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -4335,7 +4347,7 @@
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -4368,7 +4380,7 @@
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -4401,7 +4413,7 @@
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -4436,7 +4448,7 @@
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -4471,7 +4483,7 @@
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -4506,7 +4518,7 @@
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -4541,7 +4553,7 @@
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -4574,7 +4586,7 @@
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -4607,7 +4619,7 @@
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -4642,7 +4654,7 @@
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -4677,7 +4689,7 @@
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -4710,7 +4722,7 @@
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -4741,7 +4753,7 @@
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -4784,37 +4796,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F85BF50-88E6-40A2-A1FB-0D6A472C90B1}">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:N47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.875" customWidth="1"/>
-    <col min="9" max="10" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.46484375" customWidth="1"/>
+    <col min="7" max="7" width="9.46484375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.86328125" customWidth="1"/>
+    <col min="9" max="10" width="12.46484375" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.625" customWidth="1"/>
+    <col min="12" max="12" width="13.46484375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.59765625" customWidth="1"/>
+    <col min="14" max="14" width="11.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -4854,8 +4867,11 @@
       <c r="M2" s="7" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -4893,8 +4909,11 @@
       <c r="M3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -4920,8 +4939,9 @@
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -4959,8 +4979,11 @@
       <c r="M5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -4998,8 +5021,11 @@
       <c r="M6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -5037,8 +5063,11 @@
       <c r="M7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -5076,8 +5105,11 @@
       <c r="M8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -5115,8 +5147,11 @@
       <c r="M9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -5154,8 +5189,9 @@
       <c r="M10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -5193,8 +5229,11 @@
       <c r="M11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -5234,8 +5273,11 @@
       <c r="M12" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -5269,8 +5311,9 @@
       <c r="M13" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -5308,8 +5351,9 @@
       <c r="M14" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -5345,8 +5389,9 @@
       <c r="M15" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -5376,8 +5421,9 @@
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -5415,8 +5461,11 @@
       <c r="M17" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -5452,8 +5501,9 @@
       <c r="M18" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -5487,8 +5537,11 @@
       <c r="M19" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -5524,8 +5577,11 @@
       <c r="M20" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -5563,8 +5619,11 @@
       <c r="M21" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -5602,8 +5661,9 @@
       <c r="M22" s="5" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -5639,8 +5699,9 @@
       <c r="M23" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -5676,8 +5737,9 @@
       <c r="M24" s="5" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -5711,8 +5773,11 @@
       <c r="M25" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -5750,8 +5815,11 @@
       <c r="M26" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -5787,8 +5855,11 @@
       <c r="M27" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -5824,8 +5895,9 @@
       <c r="M28" s="5" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -5855,8 +5927,9 @@
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -5886,8 +5959,9 @@
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -5927,8 +6001,11 @@
       <c r="M31" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -5968,8 +6045,11 @@
       <c r="M32" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -6007,8 +6087,11 @@
       <c r="M33" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -6046,8 +6129,11 @@
       <c r="M34" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -6085,8 +6171,11 @@
       <c r="M35" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -6124,8 +6213,11 @@
       <c r="M36" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -6163,8 +6255,11 @@
       <c r="M37" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -6204,8 +6299,11 @@
       <c r="M38" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -6245,8 +6343,11 @@
       <c r="M39" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -6286,8 +6387,11 @@
       <c r="M40" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -6325,8 +6429,11 @@
       <c r="M41" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -6364,8 +6471,11 @@
       <c r="M42" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -6405,8 +6515,11 @@
       <c r="M43" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -6444,8 +6557,11 @@
       <c r="M44" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -6483,8 +6599,11 @@
       <c r="M45" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -6520,8 +6639,11 @@
       <c r="M46" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -6555,8 +6677,11 @@
       <c r="M47" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
       <c r="L48" s="1"/>
     </row>
   </sheetData>
@@ -6574,32 +6699,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226FB694-32D6-4278-9D50-7298BB867D7B}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="26.5" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="26.46484375" customWidth="1"/>
+    <col min="2" max="2" width="18.46484375" customWidth="1"/>
+    <col min="3" max="3" width="10.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="8" t="s">
         <v>184</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>178</v>
       </c>
@@ -6613,21 +6738,21 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>172</v>
       </c>
       <c r="B3" s="3">
         <v>51.36</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="9" t="s">
         <v>185</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
         <v>171</v>
       </c>
@@ -6641,7 +6766,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
         <v>180</v>
       </c>
@@ -6655,7 +6780,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
         <v>170</v>
       </c>
@@ -6669,7 +6794,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>168</v>
       </c>
@@ -6683,7 +6808,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
         <v>174</v>
       </c>
@@ -6697,7 +6822,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
         <v>175</v>
       </c>
@@ -6711,7 +6836,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
         <v>173</v>
       </c>
@@ -6725,7 +6850,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
         <v>176</v>
       </c>
@@ -6739,7 +6864,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
         <v>181</v>
       </c>
@@ -6753,7 +6878,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>169</v>
       </c>
@@ -6767,7 +6892,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>177</v>
       </c>
@@ -6781,7 +6906,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
         <v>179</v>
       </c>

--- a/2024软件工程数据统计/课堂考核及成绩记载表10.29.xlsx
+++ b/2024软件工程数据统计/课堂考核及成绩记载表10.29.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\2024软件工程数据统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87FC314-7C6B-41BF-8D23-257CAF2EABC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F246CC4-C6E9-465D-8E85-2F7CC87A2A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="190">
   <si>
     <t>浙大城市学院课堂考核及成绩记载表</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1036,6 +1036,10 @@
   </si>
   <si>
     <t>晚22分钟提交</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚一天交</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4798,8 +4802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F85BF50-88E6-40A2-A1FB-0D6A472C90B1}">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:N47"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -5189,7 +5193,9 @@
       <c r="M10" s="3">
         <v>1</v>
       </c>
-      <c r="N10" s="3"/>
+      <c r="N10" s="3" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
@@ -5501,7 +5507,9 @@
       <c r="M18" s="3">
         <v>1</v>
       </c>
-      <c r="N18" s="3"/>
+      <c r="N18" s="3" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
@@ -5699,7 +5707,9 @@
       <c r="M23" s="3">
         <v>1</v>
       </c>
-      <c r="N23" s="3"/>
+      <c r="N23" s="3" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" s="3">

--- a/2024软件工程数据统计/课堂考核及成绩记载表10.29.xlsx
+++ b/2024软件工程数据统计/课堂考核及成绩记载表10.29.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Git-2024软工数据统计\2024软件工程数据统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78951DE9-D3EB-46FC-BD4F-20E679498E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1453AA4E-54C1-445A-BD57-F16C0C94FF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -999,31 +999,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9.7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（每人加一分）</t>
-    </r>
+    <t>39.7（每人加一分）（已加）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1195,6 +1171,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1218,12 +1200,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1554,101 +1530,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9"/>
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11"/>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8">
-        <v>1</v>
-      </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="9"/>
+      <c r="E2" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="8" t="s">
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="8" t="s">
+      <c r="Q2" s="11"/>
+      <c r="R2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="9"/>
+      <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="9"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="8" t="s">
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="8" t="s">
+      <c r="Q3" s="11"/>
+      <c r="R3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="9"/>
+      <c r="S3" s="11"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -3164,31 +3140,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -4786,7 +4762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F85BF50-88E6-40A2-A1FB-0D6A472C90B1}">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
@@ -4803,16 +4779,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -6574,8 +6550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226FB694-32D6-4278-9D50-7298BB867D7B}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6592,7 +6568,7 @@
       <c r="B1" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="8" t="s">
         <v>184</v>
       </c>
       <c r="D1" s="2"/>
@@ -6620,7 +6596,7 @@
       <c r="B3" s="3">
         <v>51.36</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="9" t="s">
         <v>185</v>
       </c>
       <c r="D3" s="2"/>
@@ -6788,7 +6764,9 @@
       <c r="B15" s="3">
         <v>54.73</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="3">
+        <v>36.79</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
